--- a/biology/Zoologie/Éléphant_de_Schongauer/Éléphant_de_Schongauer.xlsx
+++ b/biology/Zoologie/Éléphant_de_Schongauer/Éléphant_de_Schongauer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9phant_de_Schongauer</t>
+          <t>Éléphant_de_Schongauer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Éléphant de Schongauer (vers 1483) était un éléphant d'Afrique,  cadeau diplomatique du roi Jean II du Portugal à l'empereur Frédéric III. Il a été représenté par Martin Schongauer et son frère sous forme de deux gravures sur cuivre. Diverses morts  spectaculaires lui ont été attribuées  à l'époque.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9phant_de_Schongauer</t>
+          <t>Éléphant_de_Schongauer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Voyage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Probablement convoyé du Portugal vers la Hollande en bateau, l'éléphant a atteint d'abord Cologne puis Francfort-sur-le-Main. Il était mené par Hans Filßhover.
 Depuis Abul-Abbas, éléphant de Charlemagne environ 700 ans plus tôt, ce pachyderme était le premier éléphant présent sur le territoire allemand. L'éléphant de Crémone de Frédéric II au XIIIe siècle n'avait pas franchi la frontière ni celui de Louis IX, le premier pachyderme d'origine africaine. Les éléphants africains restaient très rares en Europe. 
